--- a/automa.xlsx
+++ b/automa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mante\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mante\OneDrive\Escritorio\Automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E1699F-1635-4F8B-AB68-CC8E65BAC622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A2A747-74A5-4845-8398-8C7894F7E698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E6A872E7-0300-4FCF-8839-AD408E873C0B}"/>
+    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{E6A872E7-0300-4FCF-8839-AD408E873C0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Personas" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>William Correa</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Vanessa Fandiño</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>MESA &amp; BAR</t>
+  </si>
+  <si>
+    <t>COCINA</t>
   </si>
 </sst>
 </file>
@@ -176,21 +185,18 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -222,6 +228,12 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -236,11 +248,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1906FC09-000D-4BE6-9906-F4E5F3B227D9}" name="Tabla1" displayName="Tabla1" ref="A1:B31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:B31" xr:uid="{1906FC09-000D-4BE6-9906-F4E5F3B227D9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{529AA22D-0C57-40D0-B00A-5FDFB0164DFC}" name="Codigos" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{4660A04C-8508-4CA5-8BDD-E0992907322D}" name="Nombre" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1906FC09-000D-4BE6-9906-F4E5F3B227D9}" name="Tabla1" displayName="Tabla1" ref="A1:C31" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C31" xr:uid="{1906FC09-000D-4BE6-9906-F4E5F3B227D9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{529AA22D-0C57-40D0-B00A-5FDFB0164DFC}" name="Codigos" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4660A04C-8508-4CA5-8BDD-E0992907322D}" name="Nombre" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{013D177D-BCFE-488B-9051-80D9AC2D70EC}" name="Area" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -543,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F519B36B-1A57-4486-8366-E1788E66F19C}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,252 +568,345 @@
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>4050</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3821</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2392</v>
+        <v>2801</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3281</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3884</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2218</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2312</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7453</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2152</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2311</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4321</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>1392</v>
+        <v>4863</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2313</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6432</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>3722</v>
+        <v>5002</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>4231</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>9373</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2723</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2832</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>7362</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>9362</v>
+        <v>2007</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2417</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3432</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>3252</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7382</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3642</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>6538</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>8392</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
